--- a/Output/Japan/ORDERS_Japan.xlsx
+++ b/Output/Japan/ORDERS_Japan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="12">
   <si>
     <t>ORDERNUMBER</t>
   </si>

--- a/Output/Japan/ORDERS_Japan.xlsx
+++ b/Output/Japan/ORDERS_Japan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>ORDERNUMBER</t>
   </si>
@@ -33,21 +33,6 @@
   </si>
   <si>
     <t>Shipped</t>
-  </si>
-  <si>
-    <t>Resolved</t>
-  </si>
-  <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
-    <t>On Hold</t>
-  </si>
-  <si>
-    <t>Disputed</t>
-  </si>
-  <si>
-    <t>In Process</t>
   </si>
 </sst>
 </file>
